--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9740" yWindow="1160" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
+    <workbookView xWindow="7900" yWindow="1240" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
